--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Derivados de coco.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Derivados de coco.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Leite De Coco Sococo 200ml</t>
+          <t>Coco Ralado Sococo 100g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,7 +476,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d890c9f2-b2e0-402a-8888-62c4438baeb4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5a99a15-515b-448d-b94e-ce2c82e8238a.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896004400013</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Coco Ralado Sococo 100g</t>
+          <t>Leite De Coco Da Terrinha 500ml</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5a99a15-515b-448d-b94e-ce2c82e8238a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b9eb362-7293-41f5-b666-97060985c7a7.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7898693230919</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Leite De Coco Sabor Do Chef 200 Ml</t>
+          <t>Leite De Coco Da Terrinha 200ml</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 3,69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6e447397-7b5d-4c05-9c94-6cf4a4bff243.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75b4456a-6b8b-4c05-b35d-a0b011d23622.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7898693230919</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Leite De Coco Da Terrinha 200ml</t>
+          <t>Leite De Coco Coconut 500ml</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 3,69</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75b4456a-6b8b-4c05-b35d-a0b011d23622.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/826bbddc-115d-49fa-a051-09585e118a52.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896552907569</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Coco Ralado Sococo 50g</t>
+          <t>Leite De Coco Coconut 200ml</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95c5fc75-4158-4364-9650-4d27c51c73ac.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6887a5f7-0000-4452-a7c7-231dacf4ceba.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896552907569</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Coco Ralado Nordeste 100g Adocado E Umid</t>
+          <t>Coco Ralado Sabor Do Nordeste 50g Adoçado</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad786815-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/abd63c08-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7898370100412</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Coco Ralado Sweet Coco Sococo 100g</t>
+          <t>Coco Ralado Nordeste 100g Adocado E Umid</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8115dde1-aa71-40b4-86c3-75c1b41c029e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad786815-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896004400013</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Leite De Coco Coconut 200ml</t>
+          <t>Leite De Coco Sococo Red.caloria 200ml</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 4,69</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6887a5f7-0000-4452-a7c7-231dacf4ceba.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/957dce8a-9408-4423-b28b-17f09b4b27d3.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896004400075</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Coco Ralado Sabor Do Nordeste 50g Adoçado</t>
+          <t>Coco Sococo Em Flocos 100gr</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 4,69</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/abd63c08-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19531264-6595-4add-81dd-d1fb2b542ee8.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896004400723</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Leite De Coco Da Terrinha 500ml</t>
+          <t>Coco Ralado Sweet Coco Sococo 100g</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b9eb362-7293-41f5-b666-97060985c7a7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8115dde1-aa71-40b4-86c3-75c1b41c029e.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896004400327</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Leite De Coco Sococo Red.caloria 200ml</t>
+          <t>Leite De Coco Light Sococo 200ml</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/957dce8a-9408-4423-b28b-17f09b4b27d3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88021596-a316-4ce4-ac12-deb3b7b01d17.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896004400075</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Coco Sococo Sweet Flocos 100g</t>
+          <t>Leite De Coco Sococo 500ml</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80cda711-1672-427b-aaee-b663fec2842f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bcd990fe-1dbd-4631-b1db-92c3a4831512.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896004400693</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Coco Sococo Em Flocos 100gr</t>
+          <t>Leite De Coco Sococo 200ml</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19531264-6595-4add-81dd-d1fb2b542ee8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d890c9f2-b2e0-402a-8888-62c4438baeb4.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896004400075</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Leite De Coco Sococo 500ml</t>
+          <t>Coco Ralado Sococo 50g</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bcd990fe-1dbd-4631-b1db-92c3a4831512.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95c5fc75-4158-4364-9650-4d27c51c73ac.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896004400020</t>
         </is>
       </c>
     </row>
@@ -839,44 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Leite De Coco Light Sococo 200ml</t>
+          <t>Coco Sococo Sweet Flocos 100g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88021596-a316-4ce4-ac12-deb3b7b01d17.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Derivados de coco</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Leite De Coco Coconut 500ml</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/826bbddc-115d-49fa-a051-09585e118a52.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80cda711-1672-427b-aaee-b663fec2842f.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896004400723</t>
         </is>
       </c>
     </row>
